--- a/src/data/out/people.xlsx
+++ b/src/data/out/people.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -423,7 +423,7 @@
   <cols>
     <col width="8" customWidth="1" min="1" max="1"/>
     <col width="8" customWidth="1" min="2" max="2"/>
-    <col width="13" customWidth="1" min="3" max="3"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -491,40 +491,6 @@
       <c r="C4" t="inlineStr">
         <is>
           <t>Kazan</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Dana</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>SPB</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Andrey</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Novosibirsk</t>
         </is>
       </c>
     </row>
